--- a/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\September\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\CCDI scripts\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F623B5A-B272-4DAE-99BE-A7FDC1599BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF256B-7C7D-40EE-BEBC-1BB8C1421EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>WebExcel</t>
   </si>
@@ -58,32 +58,318 @@
     <t>TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;--(p:participant)
-MATCH (dia:diagnosis)
+    <t>DiagnosisTab</t>
+  </si>
+  <si>
+    <t>StudiesTab</t>
+  </si>
+  <si>
+    <t>SamplesTab</t>
+  </si>
+  <si>
+    <t>FilesTab</t>
+  </si>
+  <si>
+    <t>Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
 WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
- WITH DISTINCT p, s
-RETURN 
-       coalesce(p.participant_id, '') AS `Participant ID`,
-       coalesce(s.phs_accession, '') AS `Study Accession`,
-       coalesce(p.race, '') AS  `Race`,
-       coalesce(p.gender, '') AS `Gender` ,
-       coalesce(p.ethnicity, '') AS `Ethnicity` ,
-       coalesce(p.alternate_participant_id, '') AS `Alternate ID`
-Order by p.participant_id LIMIT 100</t>
-  </si>
-  <si>
-    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
-WHERE p.gender IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
-        OPTIONAL MATCH (st)&lt;-[*..3]-(file)
-        WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:rathology OR file:methylation_array_file OR file:single_cell_sequencing_file)
+OPTIONAL MATCH(fo:follow_up)--&gt;(p)
+with distinct d, p, s, fo
+return
+coalesce(p.participant_id, '') as `Participant ID`,
+coalesce(s.phs_accession, '') as `Study Accession`,
+coalesce(d.diagnosis_icd_o, '') as `ICD-O Morphology`,
+coalesce(d.disease_phase, '') as `Disease Phase`,
+coalesce(d.anatomic_site, '') as `Anatomic Site`,
+coalesce(d.age_at_diagnosis, '') as `Age at diagnosis (days)`,
+coalesce(fo.vital_status, '') as `Vital Status`
+Order by p.participant_id Limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[:of_participant]-(p:participant)
+ WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
         OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
         OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
-        WITH file, p, st, sm, dg
+        OPTIONAL MATCH (p)-[:of_clinical_measure_file_participant]-(cmfp:clinical_measure_file)
+        OPTIONAL MATCH (s)&lt;-[:of_clinical_measure_file]-(cmf:clinical_measure_file)
+        OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(rf:radiology_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_pathology_file]-(pf:pathology_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_methylation_array_file]-(maf:methylation_array_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_single_cell_sequencing_file]-(scsf:single_cell_sequencing_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_sequencing_file]-(sf:sequencing_file)
+        WITH cmfp, cmf, rf, pf, maf, scsf, sf, p, s, sm, dg
         return
-        count(distinct st.id) as Studies,
+        count(distinct s.id) as Studies,
         count(distinct p.id)as Participants,
-          count(distinct sm.id) as Samples,
-        count(distinct file.id) as Files</t>
+        count(distinct sm.id) as Samples,
+        count(distinct cmfp.id) + count(distinct cmf.id) + count(distinct rf.id) + count(distinct pf.id) + count(distinct maf.id) + count(distinct scsf.id) + count(distinct sf.id) as Files</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[:of_participant]-(p:participant)
+WHERE  p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+        OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+        OPTIONAL MATCH (p)-[:of_clinical_measure_file_participant]-(cmfp:clinical_measure_file)
+        OPTIONAL MATCH (s)&lt;-[:of_clinical_measure_file]-(cmf:clinical_measure_file)
+        OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(rf:radiology_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_pathology_file]-(pf:pathology_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_methylation_array_file]-(maf:methylation_array_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_single_cell_sequencing_file]-(scsf:single_cell_sequencing_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_sequencing_file]-(sf:sequencing_file)
+        WITH cmfp, cmf, rf, pf, maf, scsf, sf, p, s, sm, dg
+        return
+        count(distinct s.id) as Studies,
+        count(distinct p.id)as Participants,
+        count(distinct sm.id) as Samples,
+        count(distinct cmfp.id) + count(distinct cmf.id) + count(distinct rf.id) + count(distinct pf.id) + count(distinct maf.id) + count(distinct scsf.id) + count(distinct sf.id) as Files</t>
+  </si>
+  <si>
+    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
+WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+  with st, count(p) as num_p
+        MATCH (st:study)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
+        with st, num_p, dg.diagnosis_icd_o as dg_cancers, count(dg.diagnosis_icd_o) as num_cancers
+        ORDER BY num_cancers desc
+        with st, num_p, collect(dg_cancers + ' (' + toString(num_cancers) + ')') as cancers
+        MATCH (st)&lt;-[:of_participant]-(pa:participant)&lt;-[:of_diagnosis]-(diag:diagnosis)
+        with st, num_p, cancers, diag.anatomic_site as dg_sites, count(diag.anatomic_site) as num_sites
+        ORDER BY num_sites desc
+        with st, num_p, cancers, collect(dg_sites + ' (' + toString(num_sites) + ')') as sites
+        MATCH (st)&lt;-[*..3]-(fl)        WHERE (fl:clinical_measure_file OR fl: sequencing_file OR fl:pathology_file OR fl:rathology OR fl:methylation_array_file OR fl:single_cell_sequencing_file)
+        with st, num_p, cancers, sites, fl.file_type as ft, count(fl.file_type) as num_ft
+        ORDER BY num_ft desc
+        with st, num_p, cancers, sites, collect(ft + ' (' + toString(num_ft) + ')') as file_types, sum(num_ft) as num_files
+        MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_sample]-(sm:sample)
+        WITH st, num_p, cancers, sites, file_types, num_files, count(distinct sm.sample_id) as num_samples
+        MATCH (st)&lt;-[*..3]-(file)
+ WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:rathology OR file:methylation_array_file OR file:single_cell_sequencing_file)
+        OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+        OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+        WHERE stp.personnel_type = 'PI'
+        OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+        WITH st, num_p, cancers, sites, file_types, num_files, num_samples, file.id as file_id, stf, stp, pub
+        order by st.study_id
+        RETURN DISTINCT
+          st.study_short_title as `Study Short Title`,
+        st.study_id as `Study ID`,
+          CASE WHEN size(cancers) &gt; 5 THEN apoc.text.join(apoc.coll.remove(cancers, 5, 10000), "") + "..."  else apoc.text.join(cancers, "") END as `Diagnosis (Top 5)`,
+         CASE WHEN size(sites) &gt; 5 THEN apoc.text.join(apoc.coll.remove(sites, 5, 10000), "") + "..."  else apoc.text.join(sites, "") END as `Diagnosis Anatomic Site (Top 5)`,
+         num_p as `Number of Participants`,
+          num_samples as `Number of Samples`,
+          num_files as `Number of Files`,
+         CASE WHEN size(file_types) &gt; 5 THEN apoc.text.join(apoc.coll.remove(file_types, 5, 10000), "") + "..."  else apoc.text.join(file_types, "") END as `File Type (Top 5)`,
+         apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as `PubMed ID`,
+         apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as `Principal Investigator(s)`,
+         apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (p:participant)&lt;-[:of_sample]-(sm:sample)
+        MATCH (s:study)&lt;-[:of_participant]-(p)
+WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']        WITH p, s, sm
+        RETURN DISTINCT
+          sm.sample_id as `Sample ID`,
+          p.participant_id as `Participant ID`,
+          s.study_id as `Study ID`,
+          sm.anatomic_site as `Anatomic Site`,
+          sm.participant_age_at_collection as `Age at Sample Collection`,
+          sm.diagnosis_icd_o as `Sample ICD-O Morphology`,
+          sm.sample_tumor_status as `Sample Tumor Status`,
+          sm.tumor_classification as `Sample Tumor Classification`
+Order by sm.sample_id Limit 100
+          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (file:clinical_measure_file)
+MATCH (p:participant)-[:of_clinical_measure_file_participant]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+WITH file, st, p, ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units, toInteger(floor(log(file.file_size)/log(1024))) as i, 2 as precision
+WITH file, st, p,
+file.file_size /(1024^i) AS value, 10^precision AS factor, units[i] as unit
+WITH file, st, p, unit, round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Clinical measure' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+null AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:clinical_measure_file)
+MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
+where st.phs_accession in ['phs003111']
+WITH file, st,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Clinical measure' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+null as `Participant ID`,
+null AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:methylation_array_file)
+MATCH (sm:sample)&lt;-[:of_methylation_array_file]-(file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p, sm,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p, sm,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, sm, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Methylation array' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+sm.sample_id AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:pathology_file)
+MATCH (sm:sample)&lt;-[:of_pathology_file]-(file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p, sm,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p, sm,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, sm, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Pathology imaging' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+sm.sample_id AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:radiology_file)
+MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Radiology imaging' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+null AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:single_cell_sequencing_file)
+MATCH (sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p, sm,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p, sm,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, sm, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Single Cell Sequencing' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+sm.sample_id AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:sequencing_file)
+MATCH (sm:sample)&lt;-[:of_sequencing_file]-(file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p, sm,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p, sm,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, sm, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Sequencing' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+sm.sample_id AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+ </t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;--(p:participant)&lt;--(dia:diagnosis)
+WHERE  p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+WITH DISTINCT p, s
+RETURN
+coalesce(p.participant_id, '') AS `Participant ID`,
+coalesce(s.phs_accession, '') AS `Study Accession`,
+coalesce(p.race, '') AS `Race`,
+coalesce(p.gender, '') AS `Gender` ,
+coalesce(p.ethnicity, '') AS `Ethnicity` ,
+coalesce(p.alternate_participant_id, '') AS `Alternate ID`
+Order by p.participant_id Limit 100</t>
   </si>
 </sst>
 </file>
@@ -455,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,15 +771,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -502,21 +788,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\CCDI scripts\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\CCDI_Ashwini\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF256B-7C7D-40EE-BEBC-1BB8C1421EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB053C5-AC8E-4736-B956-92E967F3D2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>WebExcel</t>
   </si>
@@ -83,25 +83,6 @@
 coalesce(d.age_at_diagnosis, '') as `Age at diagnosis (days)`,
 coalesce(fo.vital_status, '') as `Vital Status`
 Order by p.participant_id Limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[:of_participant]-(p:participant)
- WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
-        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
-        OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
-        OPTIONAL MATCH (p)-[:of_clinical_measure_file_participant]-(cmfp:clinical_measure_file)
-        OPTIONAL MATCH (s)&lt;-[:of_clinical_measure_file]-(cmf:clinical_measure_file)
-        OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(rf:radiology_file)
-        OPTIONAL MATCH (sm)&lt;-[:of_pathology_file]-(pf:pathology_file)
-        OPTIONAL MATCH (sm)&lt;-[:of_methylation_array_file]-(maf:methylation_array_file)
-        OPTIONAL MATCH (sm)&lt;-[:of_single_cell_sequencing_file]-(scsf:single_cell_sequencing_file)
-        OPTIONAL MATCH (sm)&lt;-[:of_sequencing_file]-(sf:sequencing_file)
-        WITH cmfp, cmf, rf, pf, maf, scsf, sf, p, s, sm, dg
-        return
-        count(distinct s.id) as Studies,
-        count(distinct p.id)as Participants,
-        count(distinct sm.id) as Samples,
-        count(distinct cmfp.id) + count(distinct cmf.id) + count(distinct rf.id) + count(distinct pf.id) + count(distinct maf.id) + count(distinct scsf.id) + count(distinct sf.id) as Files</t>
   </si>
   <si>
     <t>MATCH (s:study)&lt;-[:of_participant]-(p:participant)
@@ -123,8 +104,37 @@
         count(distinct cmfp.id) + count(distinct cmf.id) + count(distinct rf.id) + count(distinct pf.id) + count(distinct maf.id) + count(distinct scsf.id) + count(distinct sf.id) as Files</t>
   </si>
   <si>
+    <t xml:space="preserve">MATCH (p:participant)&lt;-[:of_sample]-(sm:sample)
+        MATCH (s:study)&lt;-[:of_participant]-(p)
+WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']        WITH p, s, sm
+        RETURN DISTINCT
+          sm.sample_id as `Sample ID`,
+          p.participant_id as `Participant ID`,
+          s.study_id as `Study ID`,
+          sm.anatomic_site as `Anatomic Site`,
+          sm.participant_age_at_collection as `Age at Sample Collection`,
+          sm.diagnosis_icd_o as `Sample ICD-O Morphology`,
+          sm.sample_tumor_status as `Sample Tumor Status`,
+          sm.tumor_classification as `Sample Tumor Classification`
+Order by sm.sample_id Limit 100
+          </t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;--(p:participant)&lt;--(dia:diagnosis)
+WHERE  p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+WITH DISTINCT p, s
+RETURN
+coalesce(p.participant_id, '') AS `Participant ID`,
+coalesce(s.phs_accession, '') AS `Study Accession`,
+coalesce(p.race, '') AS `Race`,
+coalesce(p.gender, '') AS `Gender` ,
+coalesce(p.ethnicity, '') AS `Ethnicity` ,
+coalesce(p.alternate_participant_id, '') AS `Alternate ID`
+Order by p.participant_id Limit 100</t>
+  </si>
+  <si>
     <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
-WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+WHERE p.gender IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
   with st, count(p) as num_p
         MATCH (st:study)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
         with st, num_p, dg.diagnosis_icd_o as dg_cancers, count(dg.diagnosis_icd_o) as num_cancers
@@ -159,29 +169,14 @@
          CASE WHEN size(file_types) &gt; 5 THEN apoc.text.join(apoc.coll.remove(file_types, 5, 10000), "") + "..."  else apoc.text.join(file_types, "") END as `File Type (Top 5)`,
          apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as `PubMed ID`,
          apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as `Principal Investigator(s)`,
-         apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATCH (p:participant)&lt;-[:of_sample]-(sm:sample)
-        MATCH (s:study)&lt;-[:of_participant]-(p)
-WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']        WITH p, s, sm
-        RETURN DISTINCT
-          sm.sample_id as `Sample ID`,
-          p.participant_id as `Participant ID`,
-          s.study_id as `Study ID`,
-          sm.anatomic_site as `Anatomic Site`,
-          sm.participant_age_at_collection as `Age at Sample Collection`,
-          sm.diagnosis_icd_o as `Sample ICD-O Morphology`,
-          sm.sample_tumor_status as `Sample Tumor Status`,
-          sm.tumor_classification as `Sample Tumor Classification`
-Order by sm.sample_id Limit 100
-          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATCH (file:clinical_measure_file)
+         apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`
+Order by st.study_short_title Limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (file:clinical_measure_file)
 MATCH (p:participant)-[:of_clinical_measure_file_participant]-(file)
 MATCH (st)&lt;-[:of_participant]-(p)
-WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+where st.phs_accession in ['phs003111']
 WITH file, st, p, ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units, toInteger(floor(log(file.file_size)/log(1024))) as i, 2 as precision
 WITH file, st, p,
 file.file_size /(1024^i) AS value, 10^precision AS factor, units[i] as unit
@@ -194,7 +189,7 @@
 CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
 st.study_id AS `Study ID`,
 p.participant_id as `Participant ID`,
-null AS `Sample ID`,
+'' AS `Sample ID`,
 file.dcf_indexd_guid AS `GUID`,
 file.md5sum AS `MD5sum`
 UNION ALL
@@ -218,8 +213,8 @@
 file.file_type AS `File Type`,
 CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
 st.study_id AS `Study ID`,
-null as `Participant ID`,
-null AS `Sample ID`,
+'' as `Participant ID`,
+'' AS `Sample ID`,
 file.dcf_indexd_guid AS `GUID`,
 file.md5sum AS `MD5sum`
 UNION ALL
@@ -299,7 +294,7 @@
 CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
 st.study_id AS `Study ID`,
 p.participant_id as `Participant ID`,
-null AS `Sample ID`,
+'' AS `Sample ID`,
 file.dcf_indexd_guid AS `GUID`,
 file.md5sum AS `MD5sum`
 UNION ALL
@@ -356,20 +351,7 @@
 sm.sample_id AS `Sample ID`,
 file.dcf_indexd_guid AS `GUID`,
 file.md5sum AS `MD5sum`
- </t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;--(p:participant)&lt;--(dia:diagnosis)
-WHERE  p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
-WITH DISTINCT p, s
-RETURN
-coalesce(p.participant_id, '') AS `Participant ID`,
-coalesce(s.phs_accession, '') AS `Study Accession`,
-coalesce(p.race, '') AS `Race`,
-coalesce(p.gender, '') AS `Gender` ,
-coalesce(p.ethnicity, '') AS `Ethnicity` ,
-coalesce(p.alternate_participant_id, '') AS `Alternate ID`
-Order by p.participant_id Limit 100</t>
+Order by file.file_name Limit 100</t>
   </si>
 </sst>
 </file>
@@ -741,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -796,7 +778,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -810,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -827,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>

--- a/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\September\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\OctBranch\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F623B5A-B272-4DAE-99BE-A7FDC1599BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A39DA-A32B-4793-B1CE-4757A7062152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>WebExcel</t>
   </si>
@@ -58,32 +58,300 @@
     <t>TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;--(p:participant)
-MATCH (dia:diagnosis)
+    <t>DiagnosisTab</t>
+  </si>
+  <si>
+    <t>StudiesTab</t>
+  </si>
+  <si>
+    <t>SamplesTab</t>
+  </si>
+  <si>
+    <t>FilesTab</t>
+  </si>
+  <si>
+    <t>Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
 WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
- WITH DISTINCT p, s
-RETURN 
-       coalesce(p.participant_id, '') AS `Participant ID`,
-       coalesce(s.phs_accession, '') AS `Study Accession`,
-       coalesce(p.race, '') AS  `Race`,
-       coalesce(p.gender, '') AS `Gender` ,
-       coalesce(p.ethnicity, '') AS `Ethnicity` ,
-       coalesce(p.alternate_participant_id, '') AS `Alternate ID`
-Order by p.participant_id LIMIT 100</t>
+OPTIONAL MATCH(fo:follow_up)--&gt;(p)
+with distinct d, p, s, fo
+return
+coalesce(p.participant_id, '') as `Participant ID`,
+coalesce(s.phs_accession, '') as `Study Accession`,
+coalesce(d.diagnosis_icd_o, '') as `ICD-O Morphology`,
+coalesce(d.disease_phase, '') as `Disease Phase`,
+coalesce(d.anatomic_site, '') as `Anatomic Site`,
+coalesce(d.age_at_diagnosis, '') as `Age at diagnosis (days)`,
+coalesce(fo.vital_status, '') as `Vital Status`
+Order by p.participant_id Limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[:of_participant]-(p:participant)
+WHERE  p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+        OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+        OPTIONAL MATCH (p)-[:of_clinical_measure_file_participant]-(cmfp:clinical_measure_file)
+        OPTIONAL MATCH (s)&lt;-[:of_clinical_measure_file]-(cmf:clinical_measure_file)
+        OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(rf:radiology_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_pathology_file]-(pf:pathology_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_methylation_array_file]-(maf:methylation_array_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_single_cell_sequencing_file]-(scsf:single_cell_sequencing_file)
+        OPTIONAL MATCH (sm)&lt;-[:of_sequencing_file]-(sf:sequencing_file)
+        WITH cmfp, cmf, rf, pf, maf, scsf, sf, p, s, sm, dg
+        return
+        count(distinct s.id) as Studies,
+        count(distinct p.id)as Participants,
+        count(distinct sm.id) as Samples,
+        count(distinct cmfp.id) + count(distinct cmf.id) + count(distinct rf.id) + count(distinct pf.id) + count(distinct maf.id) + count(distinct scsf.id) + count(distinct sf.id) as Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (p:participant)&lt;-[:of_sample]-(sm:sample)
+        MATCH (s:study)&lt;-[:of_participant]-(p)
+WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']        WITH p, s, sm
+        RETURN DISTINCT
+          sm.sample_id as `Sample ID`,
+          p.participant_id as `Participant ID`,
+          s.study_id as `Study ID`,
+          sm.anatomic_site as `Anatomic Site`,
+          sm.participant_age_at_collection as `Age at Sample Collection`,
+          sm.diagnosis_icd_o as `Sample ICD-O Morphology`,
+          sm.sample_tumor_status as `Sample Tumor Status`,
+          sm.tumor_classification as `Sample Tumor Classification`
+Order by sm.sample_id Limit 100
+          </t>
   </si>
   <si>
     <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
 WHERE p.gender IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
-        OPTIONAL MATCH (st)&lt;-[*..3]-(file)
-        WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:rathology OR file:methylation_array_file OR file:single_cell_sequencing_file)
-        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
-        OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
-        WITH file, p, st, sm, dg
-        return
-        count(distinct st.id) as Studies,
-        count(distinct p.id)as Participants,
-          count(distinct sm.id) as Samples,
-        count(distinct file.id) as Files</t>
+  with st, count(p) as num_p
+        MATCH (st:study)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
+        with st, num_p, dg.diagnosis_icd_o as dg_cancers, count(dg.diagnosis_icd_o) as num_cancers
+        ORDER BY num_cancers desc
+        with st, num_p, collect(dg_cancers + ' (' + toString(num_cancers) + ')') as cancers
+        MATCH (st)&lt;-[:of_participant]-(pa:participant)&lt;-[:of_diagnosis]-(diag:diagnosis)
+        with st, num_p, cancers, diag.anatomic_site as dg_sites, count(diag.anatomic_site) as num_sites
+        ORDER BY num_sites desc
+        with st, num_p, cancers, collect(dg_sites + ' (' + toString(num_sites) + ')') as sites
+        MATCH (st)&lt;-[*..3]-(fl)        WHERE (fl:clinical_measure_file OR fl: sequencing_file OR fl:pathology_file OR fl:rathology OR fl:methylation_array_file OR fl:single_cell_sequencing_file)
+        with st, num_p, cancers, sites, fl.file_type as ft, count(fl.file_type) as num_ft
+        ORDER BY num_ft desc
+        with st, num_p, cancers, sites, collect(ft + ' (' + toString(num_ft) + ')') as file_types, sum(num_ft) as num_files
+        MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_sample]-(sm:sample)
+        WITH st, num_p, cancers, sites, file_types, num_files, count(distinct sm.sample_id) as num_samples
+        MATCH (st)&lt;-[*..3]-(file)
+ WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:rathology OR file:methylation_array_file OR file:single_cell_sequencing_file)
+        OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+        OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+        WHERE stp.personnel_type = 'PI'
+        OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+        WITH st, num_p, cancers, sites, file_types, num_files, num_samples, file.id as file_id, stf, stp, pub
+        order by st.study_id
+        RETURN DISTINCT
+          st.study_short_title as `Study Short Title`,
+        st.study_id as `Study ID`,
+          CASE WHEN size(cancers) &gt; 5 THEN apoc.text.join(apoc.coll.remove(cancers, 5, 10000), "") + "..."  else apoc.text.join(cancers, "") END as `Diagnosis (Top 5)`,
+         CASE WHEN size(sites) &gt; 5 THEN apoc.text.join(apoc.coll.remove(sites, 5, 10000), "") + "..."  else apoc.text.join(sites, "") END as `Diagnosis Anatomic Site (Top 5)`,
+         num_p as `Number of Participants`,
+          num_samples as `Number of Samples`,
+          num_files as `Number of Files`,
+         CASE WHEN size(file_types) &gt; 5 THEN apoc.text.join(apoc.coll.remove(file_types, 5, 10000), "") + "..."  else apoc.text.join(file_types, "") END as `File Type (Top 5)`,
+         apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as `PubMed ID`,
+         apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as `Principal Investigator(s)`,
+         apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`
+Order by st.study_short_title Limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (file:clinical_measure_file)
+MATCH (p:participant)-[:of_clinical_measure_file_participant]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p, ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units, toInteger(floor(log(file.file_size)/log(1024))) as i, 2 as precision
+WITH file, st, p,
+file.file_size /(1024^i) AS value, 10^precision AS factor, units[i] as unit
+WITH file, st, p, unit, round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Clinical measure' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+'' AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:clinical_measure_file)
+MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
+where st.phs_accession in ['phs003111']
+WITH file, st,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Clinical measure' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+'' as `Participant ID`,
+'' AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:methylation_array_file)
+MATCH (sm:sample)&lt;-[:of_methylation_array_file]-(file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p, sm,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p, sm,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, sm, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Methylation array' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+sm.sample_id AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:pathology_file)
+MATCH (sm:sample)&lt;-[:of_pathology_file]-(file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p, sm,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p, sm,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, sm, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Pathology imaging' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+sm.sample_id AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:radiology_file)
+MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Radiology imaging' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+'' AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:single_cell_sequencing_file)
+MATCH (sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p, sm,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p, sm,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, sm, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Single Cell Sequencing' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+sm.sample_id AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+UNION ALL
+MATCH (file:sequencing_file)
+MATCH (sm:sample)&lt;-[:of_sequencing_file]-(file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm)
+MATCH (st:study)&lt;-[:of_participant]-(p)
+where st.phs_accession in ['phs003111']
+WITH file, st, p, sm,
+['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+toInteger(floor(log(file.file_size)/log(1024))) as i,
+2 as precision
+WITH file, st, p, sm,
+file.file_size /(1024^i) AS value,
+10^precision AS factor,
+units[i] as unit
+WITH file, st, p, sm, unit,
+round(factor * value)/factor AS size
+RETURN DISTINCT
+file.file_name AS `File Name`,
+'Sequencing' AS `File Category`,
+file.file_description AS `File Description`,
+file.file_type AS `File Type`,
+CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
+st.study_id AS `Study ID`,
+p.participant_id as `Participant ID`,
+sm.sample_id AS `Sample ID`,
+file.dcf_indexd_guid AS `GUID`,
+file.md5sum AS `MD5sum`
+Order by file.file_name Limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;--(p:participant)&lt;--(dia:diagnosis)
+WHERE  p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+WITH DISTINCT p, s
+RETURN
+coalesce(p.participant_id, '') AS `Participant ID`,
+coalesce(s.phs_accession, '') AS `Study ID`,
+coalesce(p.gender, '') AS `Gender` ,
+coalesce(p.race, '') AS `Race`,
+coalesce(p.ethnicity, '') AS `Ethnicity` ,
+coalesce(p.alternate_participant_id, '') AS `Alternate ID`
+Order by p.participant_id Limit 100</t>
   </si>
 </sst>
 </file>
@@ -455,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,15 +753,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -502,21 +770,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\OctBranch\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\FebBranch\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A39DA-A32B-4793-B1CE-4757A7062152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A15863-BAE8-465F-8AC4-EE417E384F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -70,295 +70,359 @@
     <t>FilesTab</t>
   </si>
   <si>
+    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
+WHERE p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
+        OPTIONAL MATCH (p)&lt;-[*..4]-(file)
+        WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:rathology OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+        OPTIONAL MATCH (st)&lt;--(file1:clinical_measure_file)
+        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+        OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+        WITH file, file1, p, st, sm, dg
+        return
+        count(distinct st.id) as Studies,
+        count(distinct p.id)as Participants,
+          count(distinct sm.id) as Samples,
+        count(distinct file.id) + count(distinct file1.id) as Files</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;--(p:participant)
+WHERE p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+WITH DISTINCT p, s
+RETURN
+coalesce(p.participant_id, '') AS `Participant ID`,
+coalesce(s.phs_accession, '') AS `Study ID`,
+coalesce(p.sex_at_birth, '') AS `Sex` ,
+coalesce(p.race, '') AS `Race`,
+coalesce(p.ethnicity, '') AS `Ethnicity` ,
+coalesce(p.alternate_participant_id, '') AS `Alternate ID`
+Order by p.participant_id Limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
+where p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and st.phs_accession in ["phs002430"]
+with st, count(p) as num_p
+MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
+with st, num_p, dg.diagnosis_classification as dg_cancers, count(dg.diagnosis_classification) as num_cancers
+ORDER BY num_cancers desc
+with st, num_p, collect(dg_cancers + ' (' + toString(num_cancers) + ')') as cancers
+MATCH (st)&lt;-[:of_participant]-(pa:participant)&lt;-[:of_diagnosis]-(diag:diagnosis)
+with st, num_p, cancers, diag.anatomic_site as dg_sites, count(diag.anatomic_site) as num_sites
+ORDER BY num_sites desc
+with st, num_p, cancers, collect(dg_sites + ' (' + toString(num_sites) + ')') as sites
+MATCH (st)&lt;-[*..5]-(fl)
+WHERE (fl:clinical_measure_file OR fl: sequencing_file OR fl:pathology_file OR fl:radiology_file OR fl:methylation_array_file OR fl:single_cell_sequencing_file OR fl:cytogenomic_file)
+with st, num_p, cancers, sites, fl.file_type as ft, count(fl.file_type) as num_ft
+ORDER BY num_ft desc
+with st, num_p, cancers, sites, collect(ft + ' (' + toString(num_ft) + ')') as file_types, sum(num_ft) as num_files
+OPTIONAL MATCH (st)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm1:sample)
+WHERE (pcp:participant or pcp:cell_line or pcp:pdx)
+WITH st, num_p, cancers, sites, file_types, num_files, count(distinct sm1.sample_id) as num_samples_1
+OPTIONAL MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
+WHERE (cp:cell_line or cp:pdx)
+WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1, count(distinct sm2.sample_id) as num_samples_2
+WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1 + num_samples_2 as num_samples
+MATCH (st)&lt;-[*..5]-(file)
+WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+WHERE stp.personnel_type = 'PI'
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+WITH st, num_p, cancers, sites, file_types, num_files, num_samples, file.id as file_id, stf, stp, pub
+order by st.study_id
+RETURN DISTINCT
+  st.study_short_title as `Study Short Title`,
+st.study_id as `Study ID`,
+  CASE WHEN size(cancers) &gt; 5 THEN apoc.text.join(apoc.coll.remove(cancers, 5, 10000), "") + "Read More"  else apoc.text.join(cancers, "") END as `Diagnosis (Top 5)`,
+  CASE WHEN size(sites) &gt; 5 THEN apoc.text.join(apoc.coll.remove(sites, 5, 10000), "") + "Read More"  else apoc.text.join(sites, "") END as `Diagnosis Anatomic Site (Top 5)`,
+  num_p as `Number of Participants`,
+  num_samples as `Number of Samples`,
+  num_files as `Number of Files`,
+  CASE WHEN size(file_types) &gt; 5 THEN apoc.text.join(apoc.coll.remove(file_types, 5, 10000), "") + "Read More"  else apoc.text.join(file_types, "") END as `File Type (Top 5)`,
+  apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as `PubMed ID`,
+  apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as `Principal Investigator(s)`,
+  apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL {
+  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm:sample)
+  WHERE p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
+  return st, p.participant_id as participant_id, sm
+  union all
+  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
+  WHERE (cp:cell_line or cp:pdx) and p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
+  with st, p.participant_id as participant_id, [sm1,sm2] as sampleArr
+  unwind sampleArr as sm
+  return st, participant_id, sm
+}
+RETURN DISTINCT
+          sm.sample_id as `Sample ID`,
+          participant_id as `Participant ID`,
+          st.study_id as `Study ID`,
+          sm.anatomic_site as `Anatomic Site`,
+          case sm.participant_age_at_collection when -999 then 'Not Reported' else coalesce(sm.participant_age_at_collection, '') end as `Age at Sample Collection`,
+          coalesce(sm.diagnosis_classification, '') as `Diagnosis`,
+          coalesce(sm.diagnosis_classification_system, '') as `Diagnosis Classification System`,
+          coalesce(sm.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+          coalesce(sm.diagnosis_basis, '') as `Diagnosis Basis`,
+          coalesce(sm.diagnosis_comment, '') as `Diagnosis Comment`,
+          sm.sample_tumor_status as `Sample Tumor Status`,
+          sm.tumor_classification as `Sample Tumor Classification`
+Order by sm.sample_id Limit 100
+          </t>
+  </si>
+  <si>
+    <t>CALL {
+MATCH (file:clinical_measure_file)
+        MATCH (p:participant)-[:of_clinical_measure_file]-(file)
+        MATCH (st:study)&lt;-[:of_participant]-(p)
+        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
+        with file, p, st,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file.file_size)/log(1024))) as i,
+        2 as precision
+        WITH file, p, st,
+        file.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+        WITH file, p, st, unit,
+        round(factor * value)/factor AS size
+        RETURN DISTINCT
+        file.file_name AS file_name,
+        'Clinical data' AS file_category,
+        file.file_description AS file_description,
+        file.file_type AS file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
+        st.study_id AS study_id,
+        p.participant_id as participant_id,
+        "" AS sample_id,
+        file.dcf_indexd_guid AS guid,
+        file.md5sum AS md5sum
+        UNION ALL
+        MATCH (file:clinical_measure_file)
+        MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
+        Where st.phs_accession in ['phs003111']
+        match (st)&lt;--(p:participant)
+        Where p.sex_at_birth in ['Female'] and p.race in ['Asian']
+        with file, st,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file.file_size)/log(1024))) as i,
+        2 as precision
+        WITH file, st,
+        file.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+        WITH file, st, unit,
+        round(factor * value)/factor AS size
+        RETURN DISTINCT
+        file.file_name AS file_name,
+        'Clinical data' AS file_category,
+        file.file_description AS file_description,
+        file.file_type AS file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
+        st.study_id AS study_id,
+        "" as participant_id,
+        "" AS sample_id,
+        file.dcf_indexd_guid AS guid,
+        file.md5sum AS md5sum
+        UNION ALL
+        MATCH (file:methylation_array_file)
+        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_methylation_array_file]-(file)
+        MATCH (st:study)&lt;-[:of_participant]-(p)
+        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
+        with file, p, sm1, sm, st,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file.file_size)/log(1024))) as i,
+        2 as precision
+        WITH file, p, sm1, sm, st,
+        file.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+        WITH file, p, sm1, sm, st, unit,
+        round(factor * value)/factor AS size
+        RETURN DISTINCT
+        file.file_name AS file_name,
+        'Methylation array' AS file_category,
+        file.file_description AS file_description,
+        file.file_type AS file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
+        st.study_id AS study_id,
+        p.participant_id as participant_id,
+        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+        file.dcf_indexd_guid AS guid,
+        file.md5sum AS md5sum
+        UNION ALL
+        MATCH (file:pathology_file)
+        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_pathology_file]-(file)
+        MATCH (st:study)&lt;-[:of_participant]-(p)
+        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
+        with file, p, sm1, sm, st,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file.file_size)/log(1024))) as i,
+        2 as precision
+        WITH file, p, sm1, sm, st,
+        file.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+        WITH file, p, sm1, sm, st, unit,
+        round(factor * value)/factor AS size
+        RETURN DISTINCT
+        file.file_name AS file_name,
+        'Pathology imaging' AS file_category,
+        file.file_description AS file_description,
+        file.file_type AS file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
+        st.study_id AS study_id,
+        p.participant_id as participant_id,
+        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+        file.dcf_indexd_guid AS guid,
+        file.md5sum AS md5sum
+        UNION ALL
+        MATCH (file:radiology_file)
+        MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
+        MATCH (st:study)&lt;-[:of_participant]-(p)
+        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
+        with file, p, st,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file.file_size)/log(1024))) as i,
+        2 as precision
+        WITH file, p, st,
+        file.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+        WITH file, p, st, unit,
+        round(factor * value)/factor AS size
+        RETURN DISTINCT
+        file.file_name AS file_name,
+        'Radiology imaging' AS file_category,
+        file.file_description AS file_description,
+        file.file_type AS file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
+        st.study_id AS study_id,
+        p.participant_id as participant_id,
+        "" AS sample_id,
+        file.dcf_indexd_guid AS guid,
+        file.md5sum AS md5sum
+        UNION ALL
+        MATCH (file:single_cell_sequencing_file)
+        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
+        MATCH (st:study)&lt;-[:of_participant]-(p)
+        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
+        with file, p, sm1, sm, st,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file.file_size)/log(1024))) as i,
+        2 as precision
+        WITH file, p, sm1, sm, st,
+        file.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+        WITH file, p, sm1, sm, st, unit,
+        round(factor * value)/factor AS size
+        RETURN DISTINCT
+        file.file_name AS file_name,
+        'Single Cell Sequencing' AS file_category,
+        file.file_description AS file_description,
+        file.file_type AS file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
+        st.study_id AS study_id,
+        p.participant_id as participant_id,
+        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+        file.dcf_indexd_guid AS guid,
+        file.md5sum AS md5sum
+        UNION ALL
+        MATCH (file:sequencing_file)
+        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_sequencing_file]-(file)
+        MATCH (st:study)&lt;-[:of_participant]-(p)
+        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
+        with file, p, sm1, sm, st,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file.file_size)/log(1024))) as i,
+        2 as precision
+        WITH file, p, sm1, sm, st,
+        file.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+        WITH file, p, sm1, sm, st, unit,
+        round(factor * value)/factor AS size
+        RETURN DISTINCT
+        file.file_name AS file_name,
+        'Sequencing' AS file_category,
+        file.file_description AS file_description,
+        file.file_type AS file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
+        st.study_id AS study_id,
+        p.participant_id as participant_id,
+        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+        file.dcf_indexd_guid AS guid,
+        file.md5sum AS md5sum
+        UNION ALL
+        MATCH (file:cytogenomic_file)
+        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_cytogenomic_file]-(file)
+        MATCH (st:study)&lt;-[:of_participant]-(p)
+        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
+        with file, p, sm1, sm, st,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file.file_size)/log(1024))) as i,
+        2 as precision
+        WITH file, p, sm1, sm, st,
+        file.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+        WITH file, p, sm1, sm, st, unit,
+        round(factor * value)/factor AS size
+        RETURN DISTINCT
+        file.file_name AS file_name,
+        'Cytogenomic' AS file_category,
+        file.file_description AS file_description,
+        file.file_type AS file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
+        st.study_id AS study_id,
+        p.participant_id as participant_id,
+        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+        file.dcf_indexd_guid AS guid,
+        file.md5sum AS md5sum
+}
+RETURN file_name AS `File Name`,
+file_category As `File Category`,
+file_description As `File Description`,
+file_type As `File Type`,
+file_size As `File Size`,
+study_id As `Study ID`,
+participant_id As `Participant ID`,
+sample_id As `Sample ID`,
+guid As `GUID`,
+md5sum As `MD5Sum`
+ORDER BY file_name LIMIT 100</t>
+  </si>
+  <si>
     <t>Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
-WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
+where p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and s.phs_accession = "phs003111"
 OPTIONAL MATCH(fo:follow_up)--&gt;(p)
 with distinct d, p, s, fo
 return
 coalesce(p.participant_id, '') as `Participant ID`,
-coalesce(s.phs_accession, '') as `Study Accession`,
-coalesce(d.diagnosis_icd_o, '') as `ICD-O Morphology`,
+coalesce(s.phs_accession, '') as `Study ID`,
+coalesce(d.diagnosis_classification, '') as `Diagnosis`,
+coalesce(d.diagnosis_classification_system, '') as `Diagnosis Classification System`,
+coalesce(d.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+coalesce(d.diagnosis_basis, '') as `Diagnosis Basis`,
+coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
 coalesce(d.disease_phase, '') as `Disease Phase`,
 coalesce(d.anatomic_site, '') as `Anatomic Site`,
-coalesce(d.age_at_diagnosis, '') as `Age at diagnosis (days)`,
+case d.age_at_diagnosis when -999 then 'Not Reported' else coalesce(d.age_at_diagnosis, '') end as `Age at diagnosis (days)`,
 coalesce(fo.vital_status, '') as `Vital Status`
-Order by p.participant_id Limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[:of_participant]-(p:participant)
-WHERE  p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
-        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
-        OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
-        OPTIONAL MATCH (p)-[:of_clinical_measure_file_participant]-(cmfp:clinical_measure_file)
-        OPTIONAL MATCH (s)&lt;-[:of_clinical_measure_file]-(cmf:clinical_measure_file)
-        OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(rf:radiology_file)
-        OPTIONAL MATCH (sm)&lt;-[:of_pathology_file]-(pf:pathology_file)
-        OPTIONAL MATCH (sm)&lt;-[:of_methylation_array_file]-(maf:methylation_array_file)
-        OPTIONAL MATCH (sm)&lt;-[:of_single_cell_sequencing_file]-(scsf:single_cell_sequencing_file)
-        OPTIONAL MATCH (sm)&lt;-[:of_sequencing_file]-(sf:sequencing_file)
-        WITH cmfp, cmf, rf, pf, maf, scsf, sf, p, s, sm, dg
-        return
-        count(distinct s.id) as Studies,
-        count(distinct p.id)as Participants,
-        count(distinct sm.id) as Samples,
-        count(distinct cmfp.id) + count(distinct cmf.id) + count(distinct rf.id) + count(distinct pf.id) + count(distinct maf.id) + count(distinct scsf.id) + count(distinct sf.id) as Files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATCH (p:participant)&lt;-[:of_sample]-(sm:sample)
-        MATCH (s:study)&lt;-[:of_participant]-(p)
-WHERE p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']        WITH p, s, sm
-        RETURN DISTINCT
-          sm.sample_id as `Sample ID`,
-          p.participant_id as `Participant ID`,
-          s.study_id as `Study ID`,
-          sm.anatomic_site as `Anatomic Site`,
-          sm.participant_age_at_collection as `Age at Sample Collection`,
-          sm.diagnosis_icd_o as `Sample ICD-O Morphology`,
-          sm.sample_tumor_status as `Sample Tumor Status`,
-          sm.tumor_classification as `Sample Tumor Classification`
-Order by sm.sample_id Limit 100
-          </t>
-  </si>
-  <si>
-    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
-WHERE p.gender IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
-  with st, count(p) as num_p
-        MATCH (st:study)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
-        with st, num_p, dg.diagnosis_icd_o as dg_cancers, count(dg.diagnosis_icd_o) as num_cancers
-        ORDER BY num_cancers desc
-        with st, num_p, collect(dg_cancers + ' (' + toString(num_cancers) + ')') as cancers
-        MATCH (st)&lt;-[:of_participant]-(pa:participant)&lt;-[:of_diagnosis]-(diag:diagnosis)
-        with st, num_p, cancers, diag.anatomic_site as dg_sites, count(diag.anatomic_site) as num_sites
-        ORDER BY num_sites desc
-        with st, num_p, cancers, collect(dg_sites + ' (' + toString(num_sites) + ')') as sites
-        MATCH (st)&lt;-[*..3]-(fl)        WHERE (fl:clinical_measure_file OR fl: sequencing_file OR fl:pathology_file OR fl:rathology OR fl:methylation_array_file OR fl:single_cell_sequencing_file)
-        with st, num_p, cancers, sites, fl.file_type as ft, count(fl.file_type) as num_ft
-        ORDER BY num_ft desc
-        with st, num_p, cancers, sites, collect(ft + ' (' + toString(num_ft) + ')') as file_types, sum(num_ft) as num_files
-        MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_sample]-(sm:sample)
-        WITH st, num_p, cancers, sites, file_types, num_files, count(distinct sm.sample_id) as num_samples
-        MATCH (st)&lt;-[*..3]-(file)
- WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:rathology OR file:methylation_array_file OR file:single_cell_sequencing_file)
-        OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
-        OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
-        WHERE stp.personnel_type = 'PI'
-        OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
-        WITH st, num_p, cancers, sites, file_types, num_files, num_samples, file.id as file_id, stf, stp, pub
-        order by st.study_id
-        RETURN DISTINCT
-          st.study_short_title as `Study Short Title`,
-        st.study_id as `Study ID`,
-          CASE WHEN size(cancers) &gt; 5 THEN apoc.text.join(apoc.coll.remove(cancers, 5, 10000), "") + "..."  else apoc.text.join(cancers, "") END as `Diagnosis (Top 5)`,
-         CASE WHEN size(sites) &gt; 5 THEN apoc.text.join(apoc.coll.remove(sites, 5, 10000), "") + "..."  else apoc.text.join(sites, "") END as `Diagnosis Anatomic Site (Top 5)`,
-         num_p as `Number of Participants`,
-          num_samples as `Number of Samples`,
-          num_files as `Number of Files`,
-         CASE WHEN size(file_types) &gt; 5 THEN apoc.text.join(apoc.coll.remove(file_types, 5, 10000), "") + "..."  else apoc.text.join(file_types, "") END as `File Type (Top 5)`,
-         apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as `PubMed ID`,
-         apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as `Principal Investigator(s)`,
-         apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`
-Order by st.study_short_title Limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (file:clinical_measure_file)
-MATCH (p:participant)-[:of_clinical_measure_file_participant]-(file)
-MATCH (st)&lt;-[:of_participant]-(p)
-where st.phs_accession in ['phs003111']
-WITH file, st, p, ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units, toInteger(floor(log(file.file_size)/log(1024))) as i, 2 as precision
-WITH file, st, p,
-file.file_size /(1024^i) AS value, 10^precision AS factor, units[i] as unit
-WITH file, st, p, unit, round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-'Clinical measure' AS `File Category`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
-st.study_id AS `Study ID`,
-p.participant_id as `Participant ID`,
-'' AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-UNION ALL
-MATCH (file:clinical_measure_file)
-MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
-where st.phs_accession in ['phs003111']
-WITH file, st,
-['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-toInteger(floor(log(file.file_size)/log(1024))) as i,
-2 as precision
-WITH file, st,
-file.file_size /(1024^i) AS value,
-10^precision AS factor,
-units[i] as unit
-WITH file, st, unit,
-round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-'Clinical measure' AS `File Category`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
-st.study_id AS `Study ID`,
-'' as `Participant ID`,
-'' AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-UNION ALL
-MATCH (file:methylation_array_file)
-MATCH (sm:sample)&lt;-[:of_methylation_array_file]-(file)
-MATCH (p:participant)&lt;-[:of_sample]-(sm)
-MATCH (st:study)&lt;-[:of_participant]-(p)
-where st.phs_accession in ['phs003111']
-WITH file, st, p, sm,
-['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-toInteger(floor(log(file.file_size)/log(1024))) as i,
-2 as precision
-WITH file, st, p, sm,
-file.file_size /(1024^i) AS value,
-10^precision AS factor,
-units[i] as unit
-WITH file, st, p, sm, unit,
-round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-'Methylation array' AS `File Category`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
-st.study_id AS `Study ID`,
-p.participant_id as `Participant ID`,
-sm.sample_id AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-UNION ALL
-MATCH (file:pathology_file)
-MATCH (sm:sample)&lt;-[:of_pathology_file]-(file)
-MATCH (p:participant)&lt;-[:of_sample]-(sm)
-MATCH (st:study)&lt;-[:of_participant]-(p)
-where st.phs_accession in ['phs003111']
-WITH file, st, p, sm,
-['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-toInteger(floor(log(file.file_size)/log(1024))) as i,
-2 as precision
-WITH file, st, p, sm,
-file.file_size /(1024^i) AS value,
-10^precision AS factor,
-units[i] as unit
-WITH file, st, p, sm, unit,
-round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-'Pathology imaging' AS `File Category`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
-st.study_id AS `Study ID`,
-p.participant_id as `Participant ID`,
-sm.sample_id AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-UNION ALL
-MATCH (file:radiology_file)
-MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
-MATCH (st:study)&lt;-[:of_participant]-(p)
-where st.phs_accession in ['phs003111']
-WITH file, st, p,
-['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-toInteger(floor(log(file.file_size)/log(1024))) as i,
-2 as precision
-WITH file, st, p,
-file.file_size /(1024^i) AS value,
-10^precision AS factor,
-units[i] as unit
-WITH file, st, p, unit,
-round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-'Radiology imaging' AS `File Category`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
-st.study_id AS `Study ID`,
-p.participant_id as `Participant ID`,
-'' AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-UNION ALL
-MATCH (file:single_cell_sequencing_file)
-MATCH (sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
-MATCH (p:participant)&lt;-[:of_sample]-(sm)
-MATCH (st:study)&lt;-[:of_participant]-(p)
-where st.phs_accession in ['phs003111']
-WITH file, st, p, sm,
-['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-toInteger(floor(log(file.file_size)/log(1024))) as i,
-2 as precision
-WITH file, st, p, sm,
-file.file_size /(1024^i) AS value,
-10^precision AS factor,
-units[i] as unit
-WITH file, st, p, sm, unit,
-round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-'Single Cell Sequencing' AS `File Category`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
-st.study_id AS `Study ID`,
-p.participant_id as `Participant ID`,
-sm.sample_id AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-UNION ALL
-MATCH (file:sequencing_file)
-MATCH (sm:sample)&lt;-[:of_sequencing_file]-(file)
-MATCH (p:participant)&lt;-[:of_sample]-(sm)
-MATCH (st:study)&lt;-[:of_participant]-(p)
-where st.phs_accession in ['phs003111']
-WITH file, st, p, sm,
-['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-toInteger(floor(log(file.file_size)/log(1024))) as i,
-2 as precision
-WITH file, st, p, sm,
-file.file_size /(1024^i) AS value,
-10^precision AS factor,
-units[i] as unit
-WITH file, st, p, sm, unit,
-round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-'Sequencing' AS `File Category`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS `File Size`,
-st.study_id AS `Study ID`,
-p.participant_id as `Participant ID`,
-sm.sample_id AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-Order by file.file_name Limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;--(p:participant)&lt;--(dia:diagnosis)
-WHERE  p.gender IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
-WITH DISTINCT p, s
-RETURN
-coalesce(p.participant_id, '') AS `Participant ID`,
-coalesce(s.phs_accession, '') AS `Study ID`,
-coalesce(p.gender, '') AS `Gender` ,
-coalesce(p.race, '') AS `Race`,
-coalesce(p.ethnicity, '') AS `Ethnicity` ,
-coalesce(p.alternate_participant_id, '') AS `Alternate ID`
-Order by p.participant_id Limit 100</t>
+Order by p.participant_id limit 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +439,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,9 +472,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -724,14 +796,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -753,88 +825,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -851,7 +923,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\FebBranch\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A15863-BAE8-465F-8AC4-EE417E384F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BD3E62-DE0F-434E-9F88-3D38BC7117E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -413,7 +413,7 @@
 coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
 coalesce(d.disease_phase, '') as `Disease Phase`,
 coalesce(d.anatomic_site, '') as `Anatomic Site`,
-case d.age_at_diagnosis when -999 then 'Not Reported' else coalesce(d.age_at_diagnosis, '') end as `Age at diagnosis (days)`,
+case d.age_at_diagnosis when -999 then 'Not Reported' else coalesce(d.age_at_diagnosis, '') end as `Age at Diagnosis (days)`,
 coalesce(fo.vital_status, '') as `Vital Status`
 Order by p.participant_id limit 100</t>
   </si>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\MarchBranch\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9122D9-0E14-41D1-BF7E-7CAEDC50C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE718D5-B030-420A-A6CC-05ECCB6BAD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -70,352 +70,1956 @@
     <t>FilesTab</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;--(p:participant)
-WHERE p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and s.phs_accession IN ['phs003111']
-WITH DISTINCT p, s
-RETURN
-coalesce(p.participant_id, '') AS `Participant ID`,
-coalesce(s.phs_accession, '') AS `Study ID`,
-coalesce(p.sex_at_birth, '') AS `Sex` ,
-coalesce(p.race, '') AS `Race`,
-coalesce(p.ethnicity, '') AS `Ethnicity` ,
-coalesce(p.alternate_participant_id, '') AS `Alternate ID`
-Order by p.participant_id Limit 100</t>
+    <t>MATCH (p:participant)--&gt;(st:study)
+where st.phs_accession in ['phs003111']
+optional MATCH (p)&lt;-[:of_sample]-(sm1:sample)&lt;--(cl)&lt;--(sm2:sample)
+WHERE (cl: cell_line or cl: pdx)
+optional Match (sm2)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file) 
+with p, case COLLECT(distinct sm1) when [] then []
+                else COLLECT(DISTINCT {
+                        sample_anatomic_site: sm1.anatomic_site,
+                        participant_age_at_collection: sm1.participant_age_at_collection,
+                        sample_tumor_status: sm1.sample_tumor_status,
+                        tumor_classification: sm1.tumor_classification,
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array'
+                                  ELSE null END,
+                        file_type: CASE LABELS(file)[0]
+                                  When null then null
+                                  else file.file_type end,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) end AS sample1,
+                    case COLLECT(distinct sm2) 
+                    when [] then []
+                    else COLLECT(DISTINCT {
+                        sample_anatomic_site: sm2.anatomic_site,
+                        participant_age_at_collection: sm2.participant_age_at_collection,
+                        sample_tumor_status: sm2.sample_tumor_status,
+                        tumor_classification: sm2.tumor_classification,
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array'
+                                  ELSE null END,
+                        file_type: CASE LABELS(file)[0]
+                                  When null then null
+                                  else file.file_type end,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) end AS sample2
+with p, apoc.coll.union(sample1,sample2) as cell_line_pdx_file_filters
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+with p, cell_line_pdx_file_filters, COLLECT(DISTINCT {
+              sample_anatomic_site: sm.anatomic_site,
+              participant_age_at_collection: sm.participant_age_at_collection,
+              sample_tumor_status: sm.sample_tumor_status,
+              tumor_classification: sm.tumor_classification,
+              assay_method: CASE LABELS(file)[0]
+                        WHEN 'sequencing_file' THEN 'Sequencing'
+                        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                        WHEN 'pathology_file' THEN 'Pathology imaging'
+                        WHEN 'methylation_array_file' THEN 'Methylation array' END,
+              file_type: file.file_type,
+              library_selection: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_selection
+                            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                            ELSE null END,
+              library_source: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_source
+                              WHEN 'single_cell_sequencing_file' THEN file.library_source
+                            ELSE null END,
+              library_strategy: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_strategy
+                            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                            ELSE null END
+          }) AS general_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_clinical_measure_file]-(file1:clinical_measure_file)
+with p, cell_line_pdx_file_filters, general_file_filters,sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Clinical data' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_clinical_measure_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(file1:radiology_file)
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Radiology imaging' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_radiology_file_filters
+OPTIONAL MATCH (p)&lt;-[*..4]-(file)
+WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st:study)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+WITH p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, participant_radiology_file_filters, file, fu, st, stf, stp, dg
+with DISTINCT
+  p.id as id,
+  p.participant_id as participant_id,
+  apoc.text.split(p.race, ';') as race,
+  p.race as race_str,
+  p.sex_at_birth as sex_at_birth,
+  p.ethnicity as ethnicity_str,
+  apoc.text.split(p.ethnicity, ';') as ethnicity,
+  p.alternate_participant_id as alternate_participant_id,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  apoc.coll.union(cell_line_pdx_file_filters, general_file_filters) + participant_clinical_measure_file_filters + participant_radiology_file_filters AS sample_file_filters,
+  st.study_id as study_id,
+  st.phs_accession as phs_accession,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title
+  with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, race, ethnicity, alternate_participant_id, diagnosis_filters, vital_status, sample_file_filters
+  where   sex_at_birth in ['Female'] and ANY(element IN ['Asian'] WHERE element IN race) 
+    with distinct id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id
+  return
+  coalesce(participant_id, '') AS `Participant ID`,
+  coalesce(phs_accession, '') AS `Study ID`,
+  coalesce(sex_at_birth, '') AS `Sex` ,
+  coalesce(race_str, '') AS `Race`,
+  coalesce(ethnicity_str, '') AS `Ethnicity` ,
+  coalesce(alternate_participant_id, '') AS `Alternate ID`
+  Order by participant_id Limit 100</t>
   </si>
   <si>
-    <t xml:space="preserve">CALL {
-  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm:sample)
-  WHERE p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
-  return st, p.participant_id as participant_id, sm
-  union all
-  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
-  WHERE (cp:cell_line or cp:pdx) and p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
-  with st, p.participant_id as participant_id, [sm1,sm2] as sampleArr
-  unwind sampleArr as sm
-  return st, participant_id, sm
+    <t>Match (st:study)
+where st.phs_accession in ['phs003111']
+with st
+Call {
+with st
+MATCH (file:clinical_measure_file)
+MATCH (p:participant)-[:of_clinical_measure_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.clinical_measure_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Clinical data' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  null AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,      
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:methylation_array_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_methylation_array_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.methylation_array_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Methylation array' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:pathology_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_pathology_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.pathology_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Pathology imaging' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:radiology_file)
+MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.radiology_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Radiology imaging' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  null AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:single_cell_sequencing_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.single_cell_sequencing_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Single Cell Sequencing' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:sequencing_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_sequencing_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.sequencing_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Sequencing' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:cytogenomic_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_cytogenomic_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.cytogenomic_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Cytogenomic' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file)
+WHERE (file:sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+MATCH (st)&lt;-[:of_cell_line|of_pdx]-(cl)&lt;--(sm:sample)
+Where (cl: cell_line or cl: pdx)
+MATCH (sm)&lt;--(file)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (st)&lt;--(p:participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (st)&lt;--(p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+with file, sm, st, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  null as pid,
+  CASE LABELS(file)[0]
+        WHEN 'sequencing_file' THEN file.sequencing_file_id
+        WHEN 'single_cell_sequencing_file' THEN file.single_cell_sequencing_file_id
+        WHEN 'cytogenomic_file' THEN file.cytogenomic_file_id
+        WHEN 'pathology_file' THEN file.pathology_file_id
+        WHEN 'methylation_array_file' THEN file.methylation_array_file_id END AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  CASE LABELS(file)[0]
+        WHEN 'sequencing_file' THEN 'Sequencing'
+        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+        WHEN 'pathology_file' THEN 'Pathology imaging'
+        WHEN 'methylation_array_file' THEN 'Methylation array' END AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  null AS participant_id,
+  sm.sample_id AS sample_id,
+  null as combined_filters,
+  null AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_selection
+            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+            ELSE null END AS library_selection,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_source
+            WHEN 'single_cell_sequencing_file' THEN file.library_source
+            ELSE null END AS library_source,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_strategy
+            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+            ELSE null END AS library_strategy
 }
-RETURN DISTINCT
-          sm.sample_id as `Sample ID`,
-          participant_id as `Participant ID`,
-          st.study_id as `Study ID`,
-          sm.anatomic_site as `Anatomic Site`,
-          case sm.participant_age_at_collection when -999 then 'Not Reported' else coalesce(sm.participant_age_at_collection, '') end as `Age at Sample Collection`,
-          coalesce(sm.diagnosis_classification, '') as `Diagnosis`,
-          coalesce(sm.diagnosis_classification_system, '') as `Diagnosis Classification System`,
-          coalesce(sm.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
-          coalesce(sm.diagnosis_basis, '') as `Diagnosis Basis`,
-          coalesce(sm.diagnosis_comment, '') as `Diagnosis Comment`,
-          sm.sample_tumor_status as `Sample Tumor Status`,
-          sm.tumor_classification as `Sample Tumor Classification`
-Order by sm.sample_id Limit 100
-          </t>
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, participant_filters,diagnosis_filters, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+unwind participant_filters as participant_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, participant_filter,diagnosis_filters, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+where participant_filter.sex_at_birth in ['Female'] and ANY(element IN ['Asian'] WHERE element IN participant_filter.race) 
+unwind diagnosis_filters as diagnosis_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id,diagnosis_filter, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+ with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+unwind sample_filters as sample_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, sample_filter, grant_id, institution,library_selection,library_source,library_strategy
+with distinct id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+call {
+  with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+  return id as fid, guid as dig, file_name as fn, file_category as fc, file_type as ft, file_description as fd, file_size as fsize, md5sum as md5, study_id as sid, phs_accession as pa, study_acronym as sa, study_short_title as sst, pid as u_p_id, participant_id as p_id, sample_id as smid, grant_id as gid, institution as istt,library_selection as ls,library_source as lis,library_strategy as listr
+  UNION ALL
+  with study_id
+  MATCH (file:clinical_measure_file)
+  MATCH (stu:study)&lt;-[:of_clinical_measure_file]-(file)
+  where stu.study_id = study_id
+  OPTIONAL MATCH (stu)&lt;-[:of_study_personnel]-(stp:study_personnel)
+  OPTIONAL MATCH (stu)&lt;-[:of_study_funding]-(stf:study_funding)
+  With file, stu, stf, stp
+  RETURN DISTINCT
+    file.id as fid,
+    file.dcf_indexd_guid AS dig,
+    file.file_name AS fn,
+    'Clinical data' AS fc,
+    file.file_type AS ft,
+    file.file_description AS fd,
+    file.file_size AS fsize,
+    file.md5sum AS md5,
+    stu.study_id AS sid,
+    stu.phs_accession as pa,
+    stu.study_acronym as sa,
+    stu.study_short_title as sst,
+    null AS p_id,
+    null AS u_p_id,
+    null AS smid,
+    COLLECT(DISTINCT stf.grant_id) as gid,
+    COLLECT(DISTINCT stp.institution) as istt,
+    null AS ls,
+    null AS lis,
+    null AS listr
+}
+with fid as id, dig as guid, fn as file_name, fc as file_category, ft as file_type, fd as file_description, fsize as file_size, md5 as md5sum, sid as study_id, pa as phs_accession, sa as study_acronym, sst as study_short_title, u_p_id as unique_participant_id, p_id as participant_id, smid as sample_id, gid as grant_id, istt as institution,ls as library_selection,lis as library_source,listr as library_strategy
+ with DISTINCT id, study_id, unique_participant_id, sample_id
+with id, study_id, unique_participant_id, case sample_id when null then [null] else apoc.text.split(sample_id, ',') end as sample_ids
+unwind sample_ids as single_sample_id
+return  count(distinct study_id) as Studies, count(distinct unique_participant_id) as Participants, count(distinct single_sample_id) as Samples, count(distinct id) as Files</t>
   </si>
   <si>
-    <t>CALL {
+    <t>Match (st:study)
+where st.phs_accession in ['phs003111']
+with st
+Call {
+with st
 MATCH (file:clinical_measure_file)
-        MATCH (p:participant)-[:of_clinical_measure_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
-        with file, p, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, st,
-        file.file_size /(1024^i) AS value,
+MATCH (p:participant)-[:of_clinical_measure_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.clinical_measure_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Clinical data' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  null AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,      
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:methylation_array_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_methylation_array_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.methylation_array_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Methylation array' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:pathology_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_pathology_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.pathology_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Pathology imaging' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:radiology_file)
+MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.radiology_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Radiology imaging' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  null AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:single_cell_sequencing_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.single_cell_sequencing_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Single Cell Sequencing' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:sequencing_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_sequencing_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.sequencing_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Sequencing' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:cytogenomic_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_cytogenomic_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.cytogenomic_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Cytogenomic' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file)
+WHERE (file:sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+MATCH (st)&lt;-[:of_cell_line|of_pdx]-(cl)&lt;--(sm:sample)
+Where (cl: cell_line or cl: pdx)
+MATCH (sm)&lt;--(file)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (st)&lt;--(p:participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (st)&lt;--(p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+with file, sm, st, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  null as pid,
+  CASE LABELS(file)[0]
+        WHEN 'sequencing_file' THEN file.sequencing_file_id
+        WHEN 'single_cell_sequencing_file' THEN file.single_cell_sequencing_file_id
+        WHEN 'cytogenomic_file' THEN file.cytogenomic_file_id
+        WHEN 'pathology_file' THEN file.pathology_file_id
+        WHEN 'methylation_array_file' THEN file.methylation_array_file_id END AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  CASE LABELS(file)[0]
+        WHEN 'sequencing_file' THEN 'Sequencing'
+        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+        WHEN 'pathology_file' THEN 'Pathology imaging'
+        WHEN 'methylation_array_file' THEN 'Methylation array' END AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  null AS participant_id,
+  sm.sample_id AS sample_id,
+  null as combined_filters,
+  null AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_selection
+            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+            ELSE null END AS library_selection,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_source
+            WHEN 'single_cell_sequencing_file' THEN file.library_source
+            ELSE null END AS library_source,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_strategy
+            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+            ELSE null END AS library_strategy
+}
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, participant_filters,diagnosis_filters, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+unwind participant_filters as participant_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, participant_filter,diagnosis_filters, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+where participant_filter.sex_at_birth in ['Female'] and ANY(element IN ['Asian'] WHERE element IN participant_filter.race)  
+unwind diagnosis_filters as diagnosis_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id,diagnosis_filter, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+ with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+unwind sample_filters as sample_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, sample_filter, grant_id, institution,library_selection,library_source,library_strategy
+ with distinct id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+call {
+  with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+  return id as fid, guid as dig, file_name as fn, file_category as fc, file_type as ft, file_description as fd, file_size as fsize, md5sum as md5, study_id as sid, phs_accession as pa, study_acronym as sa, study_short_title as sst, participant_id as pid, sample_id as smid, grant_id as gid, institution as istt,library_selection as ls,library_source as lis,library_strategy as listr
+  UNION ALL
+  with study_id
+  MATCH (file:clinical_measure_file)
+  MATCH (stu:study)&lt;-[:of_clinical_measure_file]-(file)
+  where stu.study_id = study_id
+  OPTIONAL MATCH (stu)&lt;-[:of_study_personnel]-(stp:study_personnel)
+  OPTIONAL MATCH (stu)&lt;-[:of_study_funding]-(stf:study_funding)
+  With file, stu, stf, stp
+  RETURN DISTINCT
+    file.id as fid,
+    file.dcf_indexd_guid AS dig,
+    file.file_name AS fn,
+    'Clinical data' AS fc,
+    file.file_type AS ft,
+    file.file_description AS fd,
+    file.file_size AS fsize,
+    file.md5sum AS md5,
+    stu.study_id AS sid,
+    stu.phs_accession as pa,
+    stu.study_acronym as sa,
+    stu.study_short_title as sst,
+    null AS pid,
+    null AS smid,
+    COLLECT(DISTINCT stf.grant_id) as gid,
+    COLLECT(DISTINCT stp.institution) as istt,
+    null AS ls,
+    null AS lis,
+    null AS listr
+}
+with fid as id, dig as guid, fn as file_name, fc as file_category, ft as file_type, fd as file_description, fsize as file_size, md5 as md5sum, sid as study_id, pa as phs_accession, sa as study_acronym, sst as study_short_title, pid as participant_id, smid as sample_id, gid as grant_id, istt as institution,ls as library_selection,lis as library_source,listr as library_strategy
+ with id, guid, file_name, file_category, file_type, file_description, file_size, ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file_size)/log(1024))) as i,
+        2 as precision, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+with id, guid, file_name, file_category, file_type, file_description, file_size, file_size /(1024^i) AS value,
         10^precision AS factor,
-        units[i] as unit
-        WITH file, p, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Clinical data' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        "" AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:clinical_measure_file)
-        MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
-        Where st.phs_accession in ['phs003111']
-        match (st)&lt;--(p:participant)
-        Where p.sex_at_birth in ['Female'] and p.race in ['Asian']
-        with file, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Clinical data' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        "" as participant_id,
-        "" AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:methylation_array_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_methylation_array_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Methylation array' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:pathology_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_pathology_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Pathology imaging' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:radiology_file)
-        MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
-        with file, p, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Radiology imaging' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        "" AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:single_cell_sequencing_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Single Cell Sequencing' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:sequencing_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_sequencing_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Sequencing' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:cytogenomic_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_cytogenomic_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Female'] and p.race in ['Asian'] and st.phs_accession in ['phs003111']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Cytogenomic' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-}
+        units[i] as unit, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+with id, guid, file_name, file_category, file_type, file_description, unit,
+        round(factor * value)/factor AS size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy     
+with DISTINCT id,
+        file_name,
+        file_category,
+        file_description,
+        file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size_new,
+        study_id,
+        participant_id,
+        sample_id,
+        guid,
+        md5sum
 RETURN file_name AS `File Name`,
 file_category As `File Category`,
 file_description As `File Description`,
 file_type As `File Type`,
-file_size As `File Size`,
+file_size_new As `File Size`,
 study_id As `Study ID`,
-participant_id As `Participant ID`,
-sample_id As `Sample ID`,
+coalesce(participant_id, '') As `Participant ID`,
+coalesce(sample_id, '') As `Sample ID`,
 guid As `GUID`,
 md5sum As `MD5Sum`
-ORDER BY file_name LIMIT 100</t>
+ORDER BY file_name limit 100</t>
   </si>
   <si>
-    <t>Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
-where p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and s.phs_accession = "phs003111"
-OPTIONAL MATCH(fo:follow_up)--&gt;(p)
-with distinct d, p, s, fo
-return
-coalesce(p.participant_id, '') as `Participant ID`,
-coalesce(s.phs_accession, '') as `Study ID`,
-coalesce(d.diagnosis_classification, '') as `Diagnosis`,
-coalesce(d.diagnosis_classification_system, '') as `Diagnosis Classification System`,
-coalesce(d.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
-coalesce(d.diagnosis_basis, '') as `Diagnosis Basis`,
-coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
-coalesce(d.disease_phase, '') as `Disease Phase`,
-coalesce(d.anatomic_site, '') as `Anatomic Site`,
-case d.age_at_diagnosis when -999 then 'Not Reported' else coalesce(d.age_at_diagnosis, '') end as `Age at Diagnosis (days)`,
-coalesce(fo.vital_status, '') as `Vital Status`
-Order by p.participant_id limit 100</t>
+    <t>MATCH (p:participant)--&gt;(st:study)
+where st.phs_accession in ['phs003111']
+optional MATCH (p)&lt;-[:of_sample]-(sm1:sample)&lt;--(cl)&lt;--(sm2:sample)
+WHERE (cl: cell_line or cl: pdx)
+optional Match (sm2)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file) 
+with p, case COLLECT(distinct sm1) when [] then []
+                else COLLECT(DISTINCT {
+                        sample_anatomic_site: sm1.anatomic_site,
+                        participant_age_at_collection: sm1.participant_age_at_collection,
+                        sample_tumor_status: sm1.sample_tumor_status,
+                        tumor_classification: sm1.tumor_classification,
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array'
+                                  ELSE null END,
+                        file_type: CASE LABELS(file)[0]
+                                  When null then null
+                                  else file.file_type end,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) end AS sample1,
+                    case COLLECT(distinct sm2) 
+                    when [] then []
+                    else COLLECT(DISTINCT {
+                        sample_anatomic_site: sm2.anatomic_site,
+                        participant_age_at_collection: sm2.participant_age_at_collection,
+                        sample_tumor_status: sm2.sample_tumor_status,
+                        tumor_classification: sm2.tumor_classification,
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array'
+                                  ELSE null END,
+                        file_type: CASE LABELS(file)[0]
+                                  When null then null
+                                  else file.file_type end,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) end AS sample2
+with p, apoc.coll.union(sample1,sample2) as cell_line_pdx_file_filters
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+with p, cell_line_pdx_file_filters, COLLECT(DISTINCT {
+              sample_anatomic_site: sm.anatomic_site,
+              participant_age_at_collection: sm.participant_age_at_collection,
+              sample_tumor_status: sm.sample_tumor_status,
+              tumor_classification: sm.tumor_classification,
+              assay_method: CASE LABELS(file)[0]
+                        WHEN 'sequencing_file' THEN 'Sequencing'
+                        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                        WHEN 'pathology_file' THEN 'Pathology imaging'
+                        WHEN 'methylation_array_file' THEN 'Methylation array' END,
+              file_type: file.file_type,
+              library_selection: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_selection
+                            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                            ELSE null END,
+              library_source: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_source
+                              WHEN 'single_cell_sequencing_file' THEN file.library_source
+                            ELSE null END,
+              library_strategy: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_strategy
+                            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                            ELSE null END
+          }) AS general_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_clinical_measure_file]-(file1:clinical_measure_file)
+with p, cell_line_pdx_file_filters, general_file_filters,sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Clinical data' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_clinical_measure_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(file1:radiology_file)
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Radiology imaging' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_radiology_file_filters
+OPTIONAL MATCH (p)&lt;-[*..4]-(file)
+WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st:study)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+WITH p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, participant_radiology_file_filters, file, fu, st, stf, stp, dg
+with DISTINCT
+  p.id as id,
+  p.participant_id as participant_id,
+  apoc.text.split(p.race, ';') as race,
+  p.race as race_str,
+  p.sex_at_birth as sex_at_birth,
+  p.ethnicity as ethnicity_str,
+  p.alternate_participant_id as alternate_participant_id,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  apoc.coll.union(cell_line_pdx_file_filters, general_file_filters) + participant_clinical_measure_file_filters + participant_radiology_file_filters AS sample_file_filters,
+  st.study_id as study_id,
+  st.phs_accession as phs_accession,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title
+   with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id, diagnosis_filters, vital_status, sample_file_filters
+  where  sex_at_birth in ['Female'] and ANY(element IN ['Asian'] WHERE element IN apoc.text.split(race_str, ';'))  
+  unwind diagnosis_filters as diagnosis_filter
+  with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id, diagnosis_filter, vital_status, sample_file_filters
+     with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id, vital_status, sample_file_filters
+  unwind sample_file_filters as sample_file_filter
+  with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id, sample_file_filter
+    with distinct id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id
+  with distinct phs_accession as study_ids
+  MATCH (st:study)&lt;-[:of_participant]-(p:participant)
+  where st.study_id = study_ids
+  with st, count(p) as num_p
+  MATCH (st:study)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
+  with st, num_p, dg.diagnosis_classification as dg_cancers, count(dg.diagnosis_classification) as num_cancers
+  ORDER BY num_cancers desc
+  with st, num_p, collect(dg_cancers + ' (' + toString(num_cancers) + ')') as cancers
+  MATCH (st)&lt;-[:of_participant]-(pa:participant)&lt;-[:of_diagnosis]-(diag:diagnosis)
+  with st, num_p, cancers, diag.anatomic_site as dg_sites, count(diag.anatomic_site) as num_sites
+  ORDER BY num_sites desc
+  with st, num_p, cancers, collect(dg_sites + ' (' + toString(num_sites) + ')') as sites
+  MATCH (st)&lt;-[*..5]-(fl)
+  WHERE (fl:clinical_measure_file OR fl: sequencing_file OR fl:pathology_file OR fl:radiology_file OR fl:methylation_array_file OR fl:single_cell_sequencing_file OR fl:cytogenomic_file)
+  with st, num_p, cancers, sites, fl.file_type as ft, count(fl.file_type) as num_ft
+  ORDER BY num_ft desc
+  with st, num_p, cancers, sites, collect(ft + ' (' + toString(num_ft) + ')') as file_types, sum(num_ft) as num_files
+  OPTIONAL MATCH (st)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm1:sample)
+  WHERE (pcp:participant or pcp:cell_line or pcp:pdx)
+  WITH st, num_p, cancers, sites, file_types, num_files, count(distinct sm1.sample_id) as num_samples_1
+  OPTIONAL MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
+  WHERE (cp:cell_line or cp:pdx)
+  WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1, count(distinct sm2.sample_id) as num_samples_2
+  WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1 + num_samples_2 as num_samples
+  MATCH (st)&lt;-[*..5]-(file)
+  WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+  OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+  OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+  WHERE stp.personnel_type = 'PI'
+  OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+  WITH st, num_p, cancers, sites, file_types, num_files, num_samples, file.id as file_id, stf, stp, pub
+  with DISTINCT
+      st.id as id,
+      st.study_id as study_id,
+      apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as grant_id,
+      apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as pubmed_ids,
+      st.phs_accession as phs_accession,
+      st.study_short_title as study_short_title,
+      st.study_acronym as study_acronym,
+      apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as PIs,
+      num_p as num_of_participants,
+      cancers as diagnosis_cancer,
+      sites as diagnosis_anatomic_site,
+      file_types as file_types,
+      num_samples as num_of_samples,
+      num_files as num_of_files
+  RETURN DISTINCT
+  study_short_title as `Study Short Title`,
+  study_id as `Study ID`,
+  CASE WHEN size(diagnosis_cancer) &gt; 5 THEN apoc.text.join(apoc.coll.remove(diagnosis_cancer, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(diagnosis_cancer, "\n") END as `Diagnosis (Top 5)`,
+  CASE WHEN size(diagnosis_anatomic_site) &gt; 5 THEN apoc.text.join(apoc.coll.remove(diagnosis_anatomic_site, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(diagnosis_anatomic_site, "\n") END as `Diagnosis Anatomic Site (Top 5)`,
+  num_of_participants as `Number of Participants`,
+  num_of_samples as `Number of Samples`,
+  num_of_files as `Number of Files`,
+  CASE WHEN size(file_types) &gt; 5 THEN apoc.text.join(apoc.coll.remove(file_types, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(file_types, "\n") END as `File Type (Top 5)`,
+  pubmed_ids as `PubMed ID`,
+  PIs as `Principal Investigator(s)`,
+  grant_id as `Grant ID` limit 100</t>
   </si>
   <si>
-    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
-WHERE p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and st.phs_accession IN ['phs003111']
-        OPTIONAL MATCH (p)&lt;-[*..4]-(file)
-        WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
-        OPTIONAL MATCH (st)&lt;--(file1:clinical_measure_file)
-        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
-        OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
-        WITH file, file1, p, st, sm, dg
-        return
-        count(distinct st.id) as Studies,
-        count(distinct p.id)as Participants,
-          count(distinct sm.id) as Samples,
-        count(distinct file.id) + count(distinct file1.id) as Files</t>
+    <t>MATCH (p:participant)--&gt;(st:study)
+where st.phs_accession in ['phs003111']
+optional MATCH (p)&lt;-[:of_sample]-(sm1:sample)&lt;--(cl)&lt;--(sm2:sample)
+WHERE (cl: cell_line or cl: pdx)
+optional Match (sm2)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file) 
+with p, case COLLECT(distinct sm1) when [] then []
+              else COLLECT(DISTINCT {
+                      sample_anatomic_site: sm1.anatomic_site,
+                      participant_age_at_collection: sm1.participant_age_at_collection,
+                      sample_tumor_status: sm1.sample_tumor_status,
+                      tumor_classification: sm1.tumor_classification,
+                      assay_method: CASE LABELS(file)[0]
+                                WHEN 'sequencing_file' THEN 'Sequencing'
+                                WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                WHEN 'pathology_file' THEN 'Pathology imaging'
+                                WHEN 'methylation_array_file' THEN 'Methylation array'
+                                ELSE null END,
+                      file_type: CASE LABELS(file)[0]
+                                When null then null
+                                else file.file_type end,
+                      library_selection: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_selection
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                    ELSE null END,
+                      library_source: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_source
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                    ELSE null END,
+                      library_strategy: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_strategy
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                    ELSE null END
+                  }) end AS sample1,
+                  case COLLECT(distinct sm2) 
+                  when [] then []
+                  else COLLECT(DISTINCT {
+                      sample_anatomic_site: sm2.anatomic_site,
+                      participant_age_at_collection: sm2.participant_age_at_collection,
+                      sample_tumor_status: sm2.sample_tumor_status,
+                      tumor_classification: sm2.tumor_classification,
+                      assay_method: CASE LABELS(file)[0]
+                                WHEN 'sequencing_file' THEN 'Sequencing'
+                                WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                WHEN 'pathology_file' THEN 'Pathology imaging'
+                                WHEN 'methylation_array_file' THEN 'Methylation array'
+                                ELSE null END,
+                      file_type: CASE LABELS(file)[0]
+                                When null then null
+                                else file.file_type end,
+                      library_selection: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_selection
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                    ELSE null END,
+                      library_source: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_source
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                    ELSE null END,
+                      library_strategy: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_strategy
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                    ELSE null END
+                  }) end AS sample2
+with p, apoc.coll.union(sample1,sample2) as cell_line_pdx_file_filters
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+with p, cell_line_pdx_file_filters, COLLECT(DISTINCT {
+              sample_anatomic_site: sm.anatomic_site,
+              participant_age_at_collection: sm.participant_age_at_collection,
+              sample_tumor_status: sm.sample_tumor_status,
+              tumor_classification: sm.tumor_classification,
+              assay_method: CASE LABELS(file)[0]
+                        WHEN 'sequencing_file' THEN 'Sequencing'
+                        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                        WHEN 'pathology_file' THEN 'Pathology imaging'
+                        WHEN 'methylation_array_file' THEN 'Methylation array' END,
+              file_type: file.file_type,
+              library_selection: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_selection
+                            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                            ELSE null END,
+              library_source: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_source
+                            WHEN 'single_cell_sequencing_file' THEN file.library_source
+                            ELSE null END,
+              library_strategy: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_strategy
+                            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                            ELSE null END
+          }) AS general_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_clinical_measure_file]-(file1:clinical_measure_file)
+with p, cell_line_pdx_file_filters, general_file_filters,sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Clinical data' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_clinical_measure_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(file1:radiology_file)
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Radiology imaging' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_radiology_file_filters
+MATCH (dg:diagnosis)
+MATCH (p)&lt;-[:of_diagnosis]-(dg)
+OPTIONAL MATCH (p)&lt;-[*..4]-(file)
+WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters,participant_radiology_file_filters, dg, file, fu order by fu.age_at_follow_up desc
+OPTIONAL MATCH (st:study)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+WITH p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters,participant_radiology_file_filters, file, fu, st, stf, stp, dg
+with DISTINCT
+  dg.id as id,
+  dg.diagnosis_classification as diagnosis_classification,
+  dg.disease_phase as disease_phase,
+  dg.diagnosis_classification_system as diagnosis_classification_system,
+  dg.diagnosis_verification_status as diagnosis_verification_status,
+  dg.diagnosis_basis as diagnosis_basis,
+  dg.diagnosis_comment as diagnosis_comment,
+  dg.anatomic_site as diagnosis_anatomic_site,
+  dg.age_at_diagnosis as age_at_diagnosis,
+  p.participant_id as participant_id,
+  apoc.text.split(p.race, ';') as race,
+  p.sex_at_birth as sex_at_birth,
+  apoc.text.split(p.ethnicity, ';') as ethnicity,
+  st.study_id as study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  head(collect(distinct fu.vital_status)) as last_vital_status,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  apoc.coll.union(cell_line_pdx_file_filters, general_file_filters) + participant_clinical_measure_file_filters + participant_radiology_file_filters AS sample_file_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution
+with id, participant_id, phs_accession, sex_at_birth, race, ethnicity, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status, vital_status, sample_file_filters
+where   sex_at_birth in ['Female'] and ANY(element IN ['Asian'] WHERE element IN race)  
+with id, participant_id, phs_accession, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status, vital_status, sample_file_filters
+with id, participant_id, phs_accession, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status, vital_status, sample_file_filters
+unwind sample_file_filters as sample_file_filter
+with id, participant_id, phs_accession, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status, sample_file_filter
+ with distinct id, participant_id, phs_accession, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status
+return
+coalesce(participant_id, '') as `Participant ID`,
+coalesce(phs_accession, '') as `Study ID`,
+coalesce(diagnosis_classification, '') as `Diagnosis`,
+coalesce(diagnosis_classification_system, '') as `Diagnosis Classification System`,
+coalesce(diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+coalesce(diagnosis_basis, '') as `Diagnosis Basis`,
+coalesce(diagnosis_comment, '') as `Diagnosis Comment`,
+coalesce(disease_phase, '') as `Disease Phase`,
+coalesce(diagnosis_anatomic_site, '') as `Anatomic Site`,
+case age_at_diagnosis when -999 then 'Not Reported' else coalesce(age_at_diagnosis, '') end as `Age at diagnosis (days)`,
+coalesce(last_vital_status, '') as `Vital Status`
+Order by participant_id limit 100</t>
   </si>
   <si>
-    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
-where p.sex_at_birth IN ['Female'] and p.race in ['Asian'] and st.phs_accession in ["phs003111"]
-with st, count(p) as num_p
-MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
-with st, num_p, dg.diagnosis_classification as dg_cancers, count(dg.diagnosis_classification) as num_cancers
-ORDER BY num_cancers desc
-with st, num_p, collect(dg_cancers + ' (' + toString(num_cancers) + ')') as cancers
-MATCH (st)&lt;-[:of_participant]-(pa:participant)&lt;-[:of_diagnosis]-(diag:diagnosis)
-with st, num_p, cancers, diag.anatomic_site as dg_sites, count(diag.anatomic_site) as num_sites
-ORDER BY num_sites desc
-with st, num_p, cancers, collect(dg_sites + ' (' + toString(num_sites) + ')') as sites
-MATCH (st)&lt;-[*..5]-(fl)
-WHERE (fl:clinical_measure_file OR fl: sequencing_file OR fl:pathology_file OR fl:radiology_file OR fl:methylation_array_file OR fl:single_cell_sequencing_file OR fl:cytogenomic_file)
-with st, num_p, cancers, sites, fl.file_type as ft, count(fl.file_type) as num_ft
-ORDER BY num_ft desc
-with st, num_p, cancers, sites, collect(ft + ' (' + toString(num_ft) + ')') as file_types, sum(num_ft) as num_files
-OPTIONAL MATCH (st)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm1:sample)
-WHERE (pcp:participant or pcp:cell_line or pcp:pdx)
-WITH st, num_p, cancers, sites, file_types, num_files, count(distinct sm1.sample_id) as num_samples_1
-OPTIONAL MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
-WHERE (cp:cell_line or cp:pdx)
-WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1, count(distinct sm2.sample_id) as num_samples_2
-WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1 + num_samples_2 as num_samples
-MATCH (st)&lt;-[*..5]-(file)
-WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
-OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
-OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
-WHERE stp.personnel_type = 'PI'
-OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
-WITH st, num_p, cancers, sites, file_types, num_files, num_samples, file.id as file_id, stf, stp, pub
-order by st.study_id
+    <t>MATCH (st:study)
+where st.phs_accession in ['phs003111']
+with st
+call {
+  with st
+  MATCH (sm:sample)
+        OPTIONAL MATCH (p:participant)&lt;-[*..3]-(sm)
+        optional match (sm)&lt;-[*..3]-(file)
+        WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+        MATCH (st)&lt;-[:of_participant]-(p)
+        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+        OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+        OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+        OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+        WITH file, fu, p, st, sm, stf, stp, dg
+        RETURN DISTINCT
+          sm.id as id,
+          p.id as pid,
+          sm.sample_id as sample_id,
+          p.participant_id as participant_id,
+          apoc.text.split(p.race, ';') as race,
+          p.sex_at_birth as sex_at_birth,
+          apoc.text.split(p.ethnicity, ';') as ethnicity,
+          sm.anatomic_site as sample_anatomic_site,
+          sm.diagnosis_classification as sample_diagnosis_classification,
+          sm.diagnosis_classification_system as sample_diagnosis_classification_system,
+          sm.diagnosis_verification_status as sample_diagnosis_verification_status,
+          sm.diagnosis_basis as sample_diagnosis_basis,
+          sm.diagnosis_comment as sample_diagnosis_comment,
+          sm.participant_age_at_collection as participant_age_at_collection,
+          sm.sample_tumor_status as sample_tumor_status,
+          sm.tumor_classification as tumor_classification,
+          st.study_id as study_id,
+          st.phs_accession as phs_accession,
+          st.study_acronym as study_acronym,
+          st.study_short_title as study_short_title,
+          COLLECT(DISTINCT {
+              age_at_diagnosis: dg.age_at_diagnosis,
+              diagnosis_anatomic_site: dg.anatomic_site,
+              disease_phase: dg.disease_phase,
+              diagnosis_classification_system: dg.diagnosis_classification_system,
+              diagnosis_verification_status: dg.diagnosis_verification_status,
+              diagnosis_basis: dg.diagnosis_basis,
+              diagnosis_comment: dg.diagnosis_comment,
+              diagnosis_classification: dg.diagnosis_classification
+          }) AS diagnosis_filters,
+          COLLECT(DISTINCT fu.vital_status) as vital_status,
+          COLLECT(DISTINCT {
+              assay_method: CASE LABELS(file)[0]
+                        WHEN 'sequencing_file' THEN 'Sequencing'
+                        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                        WHEN 'pathology_file' THEN 'Pathology imaging'
+                        WHEN 'methylation_array_file' THEN 'Methylation array' 
+                        ELSE null END,
+              file_type: file.file_type,
+              library_selection: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_selection
+                            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                            ELSE null END,
+              library_source: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_source
+                            WHEN 'single_cell_sequencing_file' THEN file.library_source
+                            ELSE null END,
+              library_strategy: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_strategy
+                             WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                            ELSE null END
+          }) AS file_filters,
+          COLLECT(DISTINCT stf.grant_id) as grant_id,
+          COLLECT(DISTINCT stp.institution) as institution
+        union all
+        with st
+        MATCH (sm:sample)
+        MATCH (st)&lt;-[:of_cell_line|of_pdx]-(cl)&lt;--(sm)
+        Where (cl:cell_line or cl:pdx)
+        optional Match (sm)&lt;--(file)
+        WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+        MATCH (st)&lt;-[:of_participant]-(p:participant)
+        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+        OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+        OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+        OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+        WITH sm, file, fu, st, stf, stp, dg
+        RETURN DISTINCT
+          sm.id as id,
+          null as pid,
+          sm.sample_id as sample_id,
+          null as participant_id,
+          null as race,
+          null as sex_at_birth,
+          null as ethnicity,
+          sm.anatomic_site as sample_anatomic_site,
+          sm.diagnosis_classification as sample_diagnosis_classification,
+          sm.diagnosis_classification_system as sample_diagnosis_classification_system,
+          sm.diagnosis_verification_status as sample_diagnosis_verification_status,
+          sm.diagnosis_basis as sample_diagnosis_basis,
+          sm.diagnosis_comment as sample_diagnosis_comment,
+          sm.participant_age_at_collection as participant_age_at_collection,
+          sm.sample_tumor_status as sample_tumor_status,
+          sm.tumor_classification as tumor_classification,
+          st.study_id as study_id,
+          st.phs_accession as phs_accession,
+          st.study_acronym as study_acronym,
+          st.study_short_title as study_short_title,
+          COLLECT(DISTINCT {
+              age_at_diagnosis: dg.age_at_diagnosis,
+              diagnosis_anatomic_site: dg.anatomic_site,
+              disease_phase: dg.disease_phase,
+              diagnosis_classification_system: dg.diagnosis_classification_system,
+              diagnosis_verification_status: dg.diagnosis_verification_status,
+              diagnosis_basis: dg.diagnosis_basis,
+              diagnosis_comment: dg.diagnosis_comment,
+              diagnosis_classification: dg.diagnosis_classification
+          }) AS diagnosis_filters,
+          COLLECT(DISTINCT fu.vital_status) as vital_status,
+          CASE COLLECT(file) WHEN [] THEN []
+                    ELSE COLLECT(DISTINCT {
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array' 
+                                  ELSE null END,
+                        file_type: file.file_type,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) END AS file_filters,
+          COLLECT(DISTINCT stf.grant_id) as grant_id,
+          COLLECT(DISTINCT stp.institution) as institution
+}
+ with id, sample_id, participant_id, study_id, sex_at_birth, race, ethnicity, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, diagnosis_filters, vital_status, file_filters, phs_accession
+where  sex_at_birth in ['Female'] and ANY(element IN ['Asian'] WHERE element IN race)  
+unwind diagnosis_filters as diagnosis_filter
+with id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, diagnosis_filter, vital_status, file_filters, phs_accession
+ with id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, vital_status, file_filters, phs_accession
+ with id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, file_filters, phs_accession
+ unwind file_filters as file_filter
+with id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, file_filter, phs_accession
+ with distinct id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, phs_accession
 RETURN DISTINCT
-  st.study_short_title as `Study Short Title`,
-st.study_id as `Study ID`,
-  CASE WHEN size(cancers) &gt; 5 THEN apoc.text.join(apoc.coll.remove(cancers, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(cancers, "\n") END as `Diagnosis (Top 5)`,
-  CASE WHEN size(sites) &gt; 5 THEN apoc.text.join(apoc.coll.remove(sites, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(sites, "\n") END as `Diagnosis Anatomic Site (Top 5)`,
-  num_p as `Number of Participants`,
-  num_samples as `Number of Samples`,
-  num_files as `Number of Files`,
-  CASE WHEN size(file_types) &gt; 5 THEN apoc.text.join(apoc.coll.remove(file_types, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(file_types, "\n") END as `File Type (Top 5)`,
-  apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as `PubMed ID`,
-  apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as `Principal Investigator(s)`,
-  apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`</t>
+          sample_id as `Sample ID`,
+          participant_id as `Participant ID`,
+          study_id as `Study ID`,
+          sample_anatomic_site as `Anatomic Site`,
+          case participant_age_at_collection when -999 then 'Not Reported' else coalesce(participant_age_at_collection, '') end as `Age at Sample Collection`,
+          coalesce(sample_diagnosis_classification, '') as `Diagnosis`,
+          coalesce(sample_diagnosis_classification_system, '') as `Diagnosis Classification System`,
+          coalesce(sample_diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+          coalesce(sample_diagnosis_basis, '') as `Diagnosis Basis`,
+          coalesce(sample_diagnosis_comment, '') as `Diagnosis Comment`,
+          sample_tumor_status as `Sample Tumor Status`,
+          tumor_classification as `Sample Tumor Classification`
+Order by sample_id Limit 100</t>
   </si>
 </sst>
 </file>
@@ -475,7 +2079,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,88 +2429,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs003111_Gender-Female_Race-Asian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\MarchBranch\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE718D5-B030-420A-A6CC-05ECCB6BAD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8569F9-3CD3-4735-97FA-0F685FA54A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -2399,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
